--- a/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>506003</t>
-  </si>
-  <si>
-    <t>005821</t>
-  </si>
-  <si>
-    <t>001861</t>
-  </si>
-  <si>
-    <t>富国科创板两年定期开放混合</t>
-  </si>
-  <si>
-    <t>万家新机遇龙头企业灵活配置混合</t>
-  </si>
-  <si>
-    <t>富安达健康人生灵活配置混合</t>
-  </si>
-  <si>
-    <t>33.38</t>
-  </si>
-  <si>
-    <t>1.63</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>98.65</t>
-  </si>
-  <si>
-    <t>84.32</t>
-  </si>
-  <si>
-    <t>90.91</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>5.51</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>1.4620</t>
-  </si>
-  <si>
-    <t>0.0898</t>
-  </si>
-  <si>
-    <t>0.0287</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.84</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1148,651 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.37</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.84</v>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1786,13 +1851,591 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.81</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.37</v>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.84</v>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8424</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,1023 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>5.66</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>4.81</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.37</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>2.84</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.58</v>
       </c>
     </row>
@@ -566,6 +583,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1645,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2271,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2935,7 +4642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3371,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688131-皓元医药.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>9.949999999999999</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>5.66</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>4.81</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.37</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.84</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.58</v>
       </c>
     </row>
@@ -583,6 +600,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9380</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7928</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6731</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015627</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015628</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2272,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3352,7 +4677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3978,7 +5303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4642,7 +5967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5078,7 +6403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
